--- a/data/downloads/JSW Steel.xlsx
+++ b/data/downloads/JSW Steel.xlsx
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>1014.40</v>
+        <v>1005.55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>248066.84</v>
+        <v>245902.62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4435,7 +4435,7 @@
         <v>-1966.23</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="D25">
         <v>-177.0</v>
